--- a/1лаба/Perest_qual.xlsx
+++ b/1лаба/Perest_qual.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Учёба\7 семестр\Анализ нечисловых данных\static-analysis-of-non-numeric-data\1лаба\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E2D804D-C340-4DF5-886F-AEA22360EAE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D037274A-9699-4A46-A53E-EF0AFF3A68DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -66,7 +66,7 @@
     <t>A16</t>
   </si>
   <si>
-    <t>это хи кв норм</t>
+    <t>А2 А11</t>
   </si>
 </sst>
 </file>
@@ -87,7 +87,7 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -97,12 +97,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -134,14 +128,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -444,18 +437,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N38"/>
+  <dimension ref="A1:O38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27:L38"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="14" max="14" width="13.453125" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A1" s="2"/>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -491,403 +481,406 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2">
-        <v>57028.761392377462</v>
+        <v>56980.519153465582</v>
       </c>
       <c r="D2" s="2">
-        <v>814.44978788963749</v>
+        <v>811.47210558864697</v>
       </c>
       <c r="E2" s="2">
-        <v>813.50234352114046</v>
+        <v>814.63927676333685</v>
       </c>
       <c r="F2" s="2">
-        <v>4038.9437094940959</v>
+        <v>4029.6658365533699</v>
       </c>
       <c r="G2" s="2">
-        <v>6913.5711362508246</v>
+        <v>6848.3275509466166</v>
       </c>
       <c r="H2" s="2">
-        <v>317.22045582905912</v>
+        <v>317.4790925720294</v>
       </c>
       <c r="I2" s="2">
-        <v>825.60366739288315</v>
+        <v>823.11229121278166</v>
       </c>
       <c r="J2" s="2">
-        <v>43090.432156027397</v>
+        <v>43397.412714600221</v>
       </c>
       <c r="K2" s="2">
-        <v>55754.642857142862</v>
+        <v>56076.309244355019</v>
       </c>
       <c r="L2" s="2">
-        <v>317.10754954155573</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+        <v>317.86815722665881</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="2">
-        <v>57028.761392377462</v>
+        <v>56980.519153465582</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2">
-        <v>692.84956243346539</v>
+        <v>696.7610831960626</v>
       </c>
       <c r="E3" s="2">
-        <v>691.35097235490275</v>
+        <v>693.83754057327189</v>
       </c>
       <c r="F3" s="2">
-        <v>2636.078636698363</v>
+        <v>2622.93399887026</v>
       </c>
       <c r="G3" s="2">
-        <v>4587.5728361008614</v>
+        <v>4587.4853724955274</v>
       </c>
       <c r="H3" s="2">
-        <v>204.03933238264329</v>
+        <v>205.12790435664959</v>
       </c>
       <c r="I3" s="2">
-        <v>709.47637216632313</v>
+        <v>694.96123804028218</v>
       </c>
       <c r="J3" s="2">
-        <v>28178.775901539069</v>
+        <v>28119.903253049561</v>
       </c>
       <c r="K3" s="2">
-        <v>35994.755962445233</v>
+        <v>36311.410202669009</v>
       </c>
       <c r="L3" s="2">
-        <v>203.848204127222</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+        <v>206.93778150227101</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="2">
-        <v>814.44978788963749</v>
+        <v>811.47210558864697</v>
       </c>
       <c r="C4" s="2">
-        <v>692.84956243346539</v>
+        <v>696.7610831960626</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2">
-        <v>7.6908638962097964</v>
+        <v>7.6395279920840231</v>
       </c>
       <c r="F4" s="2">
-        <v>44.379817802589173</v>
+        <v>47.912920609333113</v>
       </c>
       <c r="G4" s="2">
-        <v>98.705750928411547</v>
+        <v>99.350564133669053</v>
       </c>
       <c r="H4" s="2">
-        <v>4.7543162507830017</v>
+        <v>4.5068169752133791</v>
       </c>
       <c r="I4" s="2">
-        <v>12.39472778301467</v>
+        <v>11.997844681023221</v>
       </c>
       <c r="J4" s="2">
-        <v>648.56453611323741</v>
+        <v>643.31190674278514</v>
       </c>
       <c r="K4" s="2">
-        <v>690.40854109238103</v>
+        <v>697.37692770124204</v>
       </c>
       <c r="L4" s="2">
-        <v>4.3942790346843923</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+        <v>4.6828409957700616</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="2">
-        <v>813.50234352114046</v>
+        <v>814.63927676333685</v>
       </c>
       <c r="C5" s="2">
-        <v>691.35097235490275</v>
+        <v>693.83754057327189</v>
       </c>
       <c r="D5" s="2">
-        <v>7.6908638962097964</v>
+        <v>7.6395279920840231</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2">
-        <v>44.620980080340743</v>
+        <v>43.721988583581663</v>
       </c>
       <c r="G5" s="2">
-        <v>95.167321587545189</v>
+        <v>99.084441717713176</v>
       </c>
       <c r="H5" s="2">
-        <v>5.2297898590717473</v>
+        <v>4.7543162507830017</v>
       </c>
       <c r="I5" s="2">
-        <v>12.483556509614299</v>
+        <v>13.145028346266731</v>
       </c>
       <c r="J5" s="2">
-        <v>644.62298244737303</v>
+        <v>647.15002922467602</v>
       </c>
       <c r="K5" s="2">
-        <v>695.44534217532737</v>
+        <v>691.5374677624493</v>
       </c>
       <c r="L5" s="2">
-        <v>5.2517650410139742</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+        <v>4.6828409957700616</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="2">
-        <v>4038.9437094940959</v>
+        <v>4029.6658365533699</v>
       </c>
       <c r="C6" s="2">
-        <v>2636.078636698363</v>
+        <v>2622.93399887026</v>
       </c>
       <c r="D6" s="2">
-        <v>44.379817802589173</v>
+        <v>47.912920609333113</v>
       </c>
       <c r="E6" s="2">
-        <v>44.620980080340743</v>
+        <v>43.721988583581663</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2">
-        <v>353.2562654708895</v>
+        <v>342.25376925922762</v>
       </c>
       <c r="H6" s="2">
-        <v>21.662354866537271</v>
+        <v>22.83551394892174</v>
       </c>
       <c r="I6" s="2">
-        <v>41.09330352968027</v>
+        <v>47.406296599832608</v>
       </c>
       <c r="J6" s="2">
-        <v>2032.788511530799</v>
+        <v>2021.327693080596</v>
       </c>
       <c r="K6" s="2">
-        <v>2608.4336491941422</v>
+        <v>2605.0061167896911</v>
       </c>
       <c r="L6" s="2">
-        <v>22.459355540734911</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+        <v>21.863552789609951</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="2">
-        <v>6913.5711362508246</v>
+        <v>6848.3275509466166</v>
       </c>
       <c r="C7" s="2">
-        <v>4587.5728361008614</v>
+        <v>4587.4853724955274</v>
       </c>
       <c r="D7" s="2">
-        <v>98.705750928411547</v>
+        <v>99.350564133669053</v>
       </c>
       <c r="E7" s="2">
-        <v>95.167321587545189</v>
+        <v>99.084441717713176</v>
       </c>
       <c r="F7" s="2">
-        <v>353.2562654708895</v>
+        <v>342.25376925922762</v>
       </c>
       <c r="G7" s="2"/>
       <c r="H7" s="2">
-        <v>30.339433901279829</v>
+        <v>29.33251279515677</v>
       </c>
       <c r="I7" s="2">
-        <v>91.000704287889135</v>
+        <v>98.242334294242028</v>
       </c>
       <c r="J7" s="2">
-        <v>3768.4458514260509</v>
+        <v>3699.604951856355</v>
       </c>
       <c r="K7" s="2">
-        <v>4755.418642730343</v>
+        <v>4734.6077780220749</v>
       </c>
       <c r="L7" s="2">
-        <v>29.742892936345921</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+        <v>29.048575330963821</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="2">
-        <v>317.22045582905912</v>
+        <v>317.4790925720294</v>
       </c>
       <c r="C8" s="2">
-        <v>204.03933238264329</v>
+        <v>205.12790435664959</v>
       </c>
       <c r="D8" s="2">
+        <v>4.5068169752133791</v>
+      </c>
+      <c r="E8" s="2">
         <v>4.7543162507830017</v>
       </c>
-      <c r="E8" s="2">
-        <v>5.2297898590717473</v>
-      </c>
       <c r="F8" s="2">
-        <v>21.662354866537271</v>
+        <v>22.83551394892174</v>
       </c>
       <c r="G8" s="2">
-        <v>30.339433901279829</v>
+        <v>29.33251279515677</v>
       </c>
       <c r="H8" s="2"/>
       <c r="I8" s="2">
-        <v>5.5045787606469894</v>
+        <v>4.3990647715409006</v>
       </c>
       <c r="J8" s="2">
-        <v>153.75533743426689</v>
+        <v>154.33524933195031</v>
       </c>
       <c r="K8" s="2">
-        <v>193.07792230458341</v>
+        <v>193.34141607559059</v>
       </c>
       <c r="L8" s="2">
-        <v>3.261597267389944</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+        <v>3.9284927338651729</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="2">
-        <v>825.60366739288315</v>
+        <v>823.11229121278166</v>
       </c>
       <c r="C9" s="2">
-        <v>709.47637216632313</v>
+        <v>694.96123804028218</v>
       </c>
       <c r="D9" s="2">
-        <v>12.39472778301467</v>
+        <v>11.997844681023221</v>
       </c>
       <c r="E9" s="2">
-        <v>12.483556509614299</v>
+        <v>13.145028346266731</v>
       </c>
       <c r="F9" s="2">
-        <v>41.09330352968027</v>
+        <v>47.406296599832608</v>
       </c>
       <c r="G9" s="2">
-        <v>91.000704287889135</v>
+        <v>98.242334294242028</v>
       </c>
       <c r="H9" s="2">
-        <v>5.5045787606469894</v>
+        <v>4.3990647715409006</v>
       </c>
       <c r="I9" s="2"/>
       <c r="J9" s="2">
-        <v>643.29684648039779</v>
+        <v>649.57426647275508</v>
       </c>
       <c r="K9" s="2">
-        <v>710.15501779741635</v>
+        <v>708.10385917538633</v>
       </c>
       <c r="L9" s="2">
         <v>4.8280987113041656</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B10" s="2">
-        <v>43090.432156027397</v>
+        <v>43397.412714600221</v>
       </c>
       <c r="C10" s="2">
-        <v>28178.775901539069</v>
+        <v>28119.903253049561</v>
       </c>
       <c r="D10" s="2">
-        <v>648.56453611323741</v>
+        <v>643.31190674278514</v>
       </c>
       <c r="E10" s="2">
-        <v>644.62298244737303</v>
+        <v>647.15002922467602</v>
       </c>
       <c r="F10" s="2">
-        <v>2032.788511530799</v>
+        <v>2021.327693080596</v>
       </c>
       <c r="G10" s="2">
-        <v>3768.4458514260509</v>
+        <v>3699.604951856355</v>
       </c>
       <c r="H10" s="2">
-        <v>153.75533743426689</v>
+        <v>154.33524933195031</v>
       </c>
       <c r="I10" s="2">
-        <v>643.29684648039779</v>
+        <v>649.57426647275508</v>
       </c>
       <c r="J10" s="2"/>
       <c r="K10" s="2">
-        <v>27733.54479937446</v>
+        <v>27917.91928229135</v>
       </c>
       <c r="L10" s="2">
-        <v>155.20592951889861</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
+        <v>153.48840168893869</v>
+      </c>
+      <c r="O10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B11" s="2">
-        <v>55754.642857142862</v>
+        <v>56076.309244355019</v>
       </c>
       <c r="C11" s="2">
-        <v>35994.755962445233</v>
+        <v>36311.410202669009</v>
       </c>
       <c r="D11" s="2">
-        <v>690.40854109238103</v>
+        <v>697.37692770124204</v>
       </c>
       <c r="E11" s="2">
-        <v>695.44534217532737</v>
+        <v>691.5374677624493</v>
       </c>
       <c r="F11" s="2">
-        <v>2608.4336491941422</v>
+        <v>2605.0061167896911</v>
       </c>
       <c r="G11" s="2">
-        <v>4755.418642730343</v>
+        <v>4734.6077780220749</v>
       </c>
       <c r="H11" s="2">
-        <v>193.07792230458341</v>
+        <v>193.34141607559059</v>
       </c>
       <c r="I11" s="2">
-        <v>710.15501779741635</v>
+        <v>708.10385917538633</v>
       </c>
       <c r="J11" s="2">
-        <v>27733.54479937446</v>
+        <v>27917.91928229135</v>
       </c>
       <c r="K11" s="2"/>
       <c r="L11" s="2">
-        <v>193.7106485531547</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
+        <v>193.77756955379621</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B12" s="2">
-        <v>317.10754954155573</v>
+        <v>317.86815722665881</v>
       </c>
       <c r="C12" s="2">
-        <v>203.848204127222</v>
+        <v>206.93778150227101</v>
       </c>
       <c r="D12" s="2">
-        <v>4.3942790346843923</v>
+        <v>4.6828409957700616</v>
       </c>
       <c r="E12" s="2">
-        <v>5.2517650410139742</v>
+        <v>4.6828409957700616</v>
       </c>
       <c r="F12" s="2">
-        <v>22.459355540734911</v>
+        <v>21.863552789609951</v>
       </c>
       <c r="G12" s="2">
-        <v>29.742892936345921</v>
+        <v>29.048575330963821</v>
       </c>
       <c r="H12" s="2">
-        <v>3.261597267389944</v>
+        <v>3.9284927338651729</v>
       </c>
       <c r="I12" s="2">
         <v>4.8280987113041656</v>
       </c>
       <c r="J12" s="2">
-        <v>155.20592951889861</v>
+        <v>153.48840168893869</v>
       </c>
       <c r="K12" s="2">
-        <v>193.7106485531547</v>
+        <v>193.77756955379621</v>
       </c>
       <c r="L12" s="2"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A14" s="2"/>
       <c r="B14" s="1" t="s">
         <v>0</v>
@@ -922,17 +915,14 @@
       <c r="L14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="N14" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B15" s="3"/>
       <c r="C15" s="2">
-        <v>55059.217553280003</v>
+        <v>55059.217553280047</v>
       </c>
       <c r="D15" s="2">
         <v>455.79262007833432</v>
@@ -962,12 +952,12 @@
         <v>311.64850451049989</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B16" s="2">
-        <v>55059.217553280003</v>
+        <v>55059.217553280047</v>
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="2">
@@ -997,6 +987,10 @@
       <c r="L16" s="2">
         <v>208.2502455112606</v>
       </c>
+      <c r="N16">
+        <f>_xlfn.MAXIFS(B15:L25,B28:L38,1)</f>
+        <v>6970.7354726770154</v>
+      </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
@@ -1364,7 +1358,7 @@
       </c>
       <c r="B28" s="3"/>
       <c r="C28" s="2">
-        <f t="shared" ref="C28:L29" si="0">IF(C2&lt;C15,1,0)</f>
+        <f t="shared" ref="C28:L28" si="0">IF(C2&lt;C15,1,0)</f>
         <v>0</v>
       </c>
       <c r="D28" s="2">
@@ -1409,44 +1403,44 @@
         <v>1</v>
       </c>
       <c r="B29" s="2">
-        <f>IF(B3&lt;B16,1,0)</f>
+        <f t="shared" ref="B29:L29" si="1">IF(B3&lt;B16,1,0)</f>
         <v>0</v>
       </c>
       <c r="C29" s="3"/>
       <c r="D29" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E29" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F29" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G29" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="H29" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I29" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J29" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K29" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="L29" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -1455,44 +1449,44 @@
         <v>2</v>
       </c>
       <c r="B30" s="2">
-        <f t="shared" ref="B30:L30" si="1">IF(B4&lt;B17,1,0)</f>
+        <f t="shared" ref="B30:L30" si="2">IF(B4&lt;B17,1,0)</f>
         <v>0</v>
       </c>
       <c r="C30" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="D30" s="3"/>
       <c r="E30" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="F30" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G30" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H30" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I30" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
       <c r="J30" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K30" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L30" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -1501,44 +1495,44 @@
         <v>3</v>
       </c>
       <c r="B31" s="2">
-        <f t="shared" ref="B31:L31" si="2">IF(B5&lt;B18,1,0)</f>
+        <f t="shared" ref="B31:L31" si="3">IF(B5&lt;B18,1,0)</f>
         <v>0</v>
       </c>
       <c r="C31" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="D31" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="E31" s="3"/>
       <c r="F31" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G31" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H31" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I31" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J31" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K31" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="L31" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -1547,44 +1541,44 @@
         <v>4</v>
       </c>
       <c r="B32" s="2">
-        <f t="shared" ref="B32:L32" si="3">IF(B6&lt;B19,1,0)</f>
+        <f t="shared" ref="B32:L32" si="4">IF(B6&lt;B19,1,0)</f>
         <v>0</v>
       </c>
       <c r="C32" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="D32" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E32" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F32" s="3"/>
       <c r="G32" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H32" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="I32" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="J32" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K32" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="L32" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -1593,44 +1587,44 @@
         <v>5</v>
       </c>
       <c r="B33" s="2">
-        <f t="shared" ref="B33:L33" si="4">IF(B7&lt;B20,1,0)</f>
+        <f t="shared" ref="B33:L33" si="5">IF(B7&lt;B20,1,0)</f>
         <v>1</v>
       </c>
       <c r="C33" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="D33" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E33" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F33" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="G33" s="3"/>
       <c r="H33" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I33" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J33" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K33" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="L33" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -1639,44 +1633,44 @@
         <v>6</v>
       </c>
       <c r="B34" s="2">
-        <f t="shared" ref="B34:L34" si="5">IF(B8&lt;B21,1,0)</f>
+        <f t="shared" ref="B34:L34" si="6">IF(B8&lt;B21,1,0)</f>
         <v>0</v>
       </c>
       <c r="C34" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="D34" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="E34" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="F34" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="G34" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="H34" s="3"/>
       <c r="I34" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J34" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K34" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="L34" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -1685,44 +1679,44 @@
         <v>7</v>
       </c>
       <c r="B35" s="2">
-        <f t="shared" ref="B35:L35" si="6">IF(B9&lt;B22,1,0)</f>
+        <f t="shared" ref="B35:L35" si="7">IF(B9&lt;B22,1,0)</f>
         <v>0</v>
       </c>
       <c r="C35" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="D35" s="2">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>1</v>
       </c>
       <c r="E35" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F35" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="G35" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H35" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="I35" s="3"/>
       <c r="J35" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K35" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="L35" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
     </row>
@@ -1731,44 +1725,44 @@
         <v>8</v>
       </c>
       <c r="B36" s="2">
-        <f t="shared" ref="B36:L36" si="7">IF(B10&lt;B23,1,0)</f>
+        <f t="shared" ref="B36:L36" si="8">IF(B10&lt;B23,1,0)</f>
         <v>0</v>
       </c>
       <c r="C36" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="D36" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E36" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F36" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="G36" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H36" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I36" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="J36" s="3"/>
       <c r="K36" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="L36" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -1777,44 +1771,44 @@
         <v>9</v>
       </c>
       <c r="B37" s="2">
-        <f t="shared" ref="B37:L37" si="8">IF(B11&lt;B24,1,0)</f>
+        <f t="shared" ref="B37:L37" si="9">IF(B11&lt;B24,1,0)</f>
         <v>0</v>
       </c>
       <c r="C37" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="D37" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="E37" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="F37" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="G37" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="H37" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="I37" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J37" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K37" s="3"/>
       <c r="L37" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
@@ -1823,43 +1817,43 @@
         <v>10</v>
       </c>
       <c r="B38" s="2">
-        <f t="shared" ref="B38:L38" si="9">IF(B12&lt;B25,1,0)</f>
+        <f t="shared" ref="B38:K38" si="10">IF(B12&lt;B25,1,0)</f>
         <v>0</v>
       </c>
       <c r="C38" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="D38" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="E38" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="F38" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="G38" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="H38" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I38" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="J38" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="K38" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="L38" s="3"/>
